--- a/Analytics/D1/CrossBookings_d1.xlsx
+++ b/Analytics/D1/CrossBookings_d1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 34</t>
+    <t>SUM("TCrossBookings") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>14950.0</v>
+        <v>8075.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>14550.0</v>
+        <v>6475.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>12925.0</v>
+        <v>6175.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>12325.0</v>
+        <v>5550.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>11600.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>11350.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>11250.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>10500.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>10425.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>10350.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>8850.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>7750.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>6700.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>6700.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>6650.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>6450.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>5200.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>3900.0</v>
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>15075.0</v>
+        <v>8125.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>14175.0</v>
+        <v>6575.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>12800.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>12100.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>11900.0</v>
+        <v>5125.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>11450.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>11350.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>9950.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>9725.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>9050.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>8650.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>8400.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>8100.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>7200.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>6300.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>5800.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>5650.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>4750.0</v>
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>27350.0</v>
+        <v>11875.0</v>
       </c>
       <c r="D2" t="n">
-        <v>804.4117647058823</v>
+        <v>1319.4444444444443</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>26500.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D3" t="n">
-        <v>779.4117647058823</v>
+        <v>1288.888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>26400.0</v>
+        <v>10225.0</v>
       </c>
       <c r="D4" t="n">
-        <v>776.4705882352941</v>
+        <v>1136.111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>26325.0</v>
+        <v>9700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>774.2647058823529</v>
+        <v>1077.7777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>24825.0</v>
+        <v>8825.0</v>
       </c>
       <c r="D6" t="n">
-        <v>730.1470588235294</v>
+        <v>980.5555555555555</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>20650.0</v>
+        <v>8675.0</v>
       </c>
       <c r="D7" t="n">
-        <v>607.3529411764706</v>
+        <v>963.8888888888889</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>20450.0</v>
+        <v>7250.0</v>
       </c>
       <c r="D8" t="n">
-        <v>601.4705882352941</v>
+        <v>805.5555555555555</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>19450.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D9" t="n">
-        <v>572.0588235294117</v>
+        <v>772.2222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>19100.0</v>
+        <v>6200.0</v>
       </c>
       <c r="D10" t="n">
-        <v>561.7647058823529</v>
+        <v>688.8888888888889</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>18575.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D11" t="n">
-        <v>546.3235294117648</v>
+        <v>655.5555555555555</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>16650.0</v>
+        <v>4850.0</v>
       </c>
       <c r="D12" t="n">
-        <v>489.70588235294116</v>
+        <v>538.8888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>16225.0</v>
+        <v>4750.0</v>
       </c>
       <c r="D13" t="n">
-        <v>477.20588235294116</v>
+        <v>527.7777777777778</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>16000.0</v>
+        <v>3850.0</v>
       </c>
       <c r="D14" t="n">
-        <v>470.5882352941176</v>
+        <v>427.77777777777777</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>15350.0</v>
+        <v>3750.0</v>
       </c>
       <c r="D15" t="n">
-        <v>451.47058823529414</v>
+        <v>416.6666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>14850.0</v>
+        <v>3400.0</v>
       </c>
       <c r="D16" t="n">
-        <v>436.7647058823529</v>
+        <v>377.77777777777777</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>12400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="D17" t="n">
-        <v>364.70588235294116</v>
+        <v>255.55555555555554</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>12300.0</v>
+        <v>2050.0</v>
       </c>
       <c r="D18" t="n">
-        <v>361.7647058823529</v>
+        <v>227.77777777777777</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>11450.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>336.7647058823529</v>
+        <v>122.22222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/CrossBookings_d1.xlsx
+++ b/Analytics/D1/CrossBookings_d1.xlsx
@@ -97,34 +97,34 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Dortmund</t>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
+    <t>Ein Frankfurt</t>
   </si>
   <si>
     <t>Bochum</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
   </si>
   <si>
     <t>Bayern Munich</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>8075.0</v>
+        <v>9575.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>6475.0</v>
+        <v>8425.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6175.0</v>
+        <v>7975.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>5550.0</v>
+        <v>7250.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>5300.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>5100.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>3700.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>3250.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2450.0</v>
+        <v>3550.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2250.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2200.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1800.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1400.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>800.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>700.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>700.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="19">
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8125.0</v>
+        <v>8275.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>6575.0</v>
+        <v>8125.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>6000.0</v>
+        <v>7600.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>5450.0</v>
+        <v>7200.0</v>
       </c>
     </row>
     <row r="6">
@@ -468,7 +468,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>5125.0</v>
+        <v>6325.0</v>
       </c>
     </row>
     <row r="7">
@@ -479,7 +479,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>4050.0</v>
+        <v>5350.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>4000.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>3450.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2600.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>2400.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>1500.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>1500.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>1400.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>1350.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>900.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>800.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>11875.0</v>
+        <v>14775.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.4444444444443</v>
+        <v>1641.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -661,10 +661,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>11600.0</v>
+        <v>14750.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1288.888888888889</v>
+        <v>1638.888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>10225.0</v>
+        <v>13325.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1136.111111111111</v>
+        <v>1480.5555555555557</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>9700.0</v>
+        <v>12300.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1077.7777777777778</v>
+        <v>1366.6666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>8825.0</v>
+        <v>11500.0</v>
       </c>
       <c r="D6" t="n">
-        <v>980.5555555555555</v>
+        <v>1277.7777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>8675.0</v>
+        <v>10625.0</v>
       </c>
       <c r="D7" t="n">
-        <v>963.8888888888889</v>
+        <v>1180.5555555555557</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>7250.0</v>
+        <v>10575.0</v>
       </c>
       <c r="D8" t="n">
-        <v>805.5555555555555</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +745,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>6950.0</v>
+        <v>9450.0</v>
       </c>
       <c r="D9" t="n">
-        <v>772.2222222222222</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>6200.0</v>
+        <v>8000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>688.8888888888889</v>
+        <v>888.8888888888889</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>5900.0</v>
+        <v>7150.0</v>
       </c>
       <c r="D11" t="n">
-        <v>655.5555555555555</v>
+        <v>794.4444444444445</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>4850.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>538.8888888888889</v>
+        <v>777.7777777777778</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>4750.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7777777777778</v>
+        <v>772.2222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>3850.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D14" t="n">
-        <v>427.77777777777777</v>
+        <v>633.3333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>3750.0</v>
+        <v>5550.0</v>
       </c>
       <c r="D15" t="n">
-        <v>416.6666666666667</v>
+        <v>616.6666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>3400.0</v>
+        <v>5450.0</v>
       </c>
       <c r="D16" t="n">
-        <v>377.77777777777777</v>
+        <v>605.5555555555555</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>2300.0</v>
+        <v>4550.0</v>
       </c>
       <c r="D17" t="n">
-        <v>255.55555555555554</v>
+        <v>505.55555555555554</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>2050.0</v>
+        <v>3600.0</v>
       </c>
       <c r="D18" t="n">
-        <v>227.77777777777777</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1100.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D19" t="n">
-        <v>122.22222222222223</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
   </sheetData>
